--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\SKU_project\Choi Young Hwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,6 +527,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -703,7 +706,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -720,7 +723,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>0</v>
+        <v>69760</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -733,7 +736,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>214750</v>
+        <v>284510</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -540,11 +540,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -706,7 +712,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -723,7 +729,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>69760</v>
+        <v>130800</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -736,7 +742,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>284510</v>
+        <v>345550</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,18 +549,24 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -712,7 +718,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -729,7 +735,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>130800</v>
+        <v>209280</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -742,7 +748,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>345550</v>
+        <v>424030</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,11 +572,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -592,68 +598,83 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -661,22 +682,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -684,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -692,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -718,7 +739,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -735,7 +756,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>209280</v>
+        <v>566800</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -748,7 +769,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>424030</v>
+        <v>781550</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>566800</v>
+        <v>575520</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -769,7 +769,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>781550</v>
+        <v>790270</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,21 +653,33 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -739,7 +751,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -756,7 +768,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>575520</v>
+        <v>854560</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -769,7 +781,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>790270</v>
+        <v>1069310</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,6 +698,9 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -751,7 +754,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -768,7 +771,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>854560</v>
+        <v>924320</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -781,7 +784,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>1069310</v>
+        <v>1139070</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\SKU_project\Choi Young Hwan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHwan\Desktop\SKU_project\Choi Young Hwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012D033-C202-4BB9-B5D2-41CE8CA7F025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,16 +487,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -523,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -531,12 +532,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -544,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -552,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -560,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -568,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -576,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -584,17 +585,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -602,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -610,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -618,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -626,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -634,47 +635,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -682,22 +695,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -705,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -713,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -721,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -729,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -739,14 +761,14 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -756,20 +778,20 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>575520</v>
+        <v>1063840</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>790270</v>
+        <v>1278590</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHwan\Desktop\SKU_project\Choi Young Hwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6012D033-C202-4BB9-B5D2-41CE8CA7F025}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5DA7D-69F1-4746-BF32-4FB2C06D6051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -726,6 +726,9 @@
       <c r="C30">
         <v>5</v>
       </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
@@ -761,7 +764,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -778,7 +781,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>1063840</v>
+        <v>1133600</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -791,7 +794,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>1278590</v>
+        <v>1348350</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHwan\Desktop\SKU_project\Choi Young Hwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5DA7D-69F1-4746-BF32-4FB2C06D6051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B10722-0BA2-4756-9C3C-0963E03B3DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -737,6 +737,9 @@
       <c r="C31">
         <v>5</v>
       </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
@@ -764,7 +767,7 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
@@ -781,7 +784,7 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>1133600</v>
+        <v>1203360</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
@@ -794,7 +797,7 @@
       </c>
       <c r="C36">
         <f>SUM(C35,D35,E35)</f>
-        <v>1348350</v>
+        <v>1418110</v>
       </c>
     </row>
   </sheetData>

--- a/Choi Young Hwan/출근확인서_최영환.xlsx
+++ b/Choi Young Hwan/출근확인서_최영환.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YoungHwan\Desktop\SKU_project\Choi Young Hwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B10722-0BA2-4756-9C3C-0963E03B3DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A8BBA-208C-476B-B5C5-8574EBF7D4DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020~2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>달</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,50 @@
   </si>
   <si>
     <t>월급 총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 10시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 2시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,8 +248,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +565,38 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -523,45 +609,94 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -569,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -577,25 +712,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -603,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -611,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -619,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -749,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -757,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -767,14 +912,54 @@
       </c>
       <c r="D34">
         <f>SUM(D3:D33)</f>
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <f>SUM(E3:E33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F3:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G3:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H3:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>SUM(I3:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J3:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K3:K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>SUM(L3:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>SUM(M3:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>SUM(N3:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>SUM(O3:O33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -784,23 +969,85 @@
       </c>
       <c r="D35">
         <f>D34 * 8720</f>
-        <v>1203360</v>
+        <v>1116160</v>
       </c>
       <c r="E35">
         <f>E34 * 8720</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+        <v>558080</v>
+      </c>
+      <c r="F35">
+        <f>F34 * 8720</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:O35" si="0">G34 * 8720</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <f>SUM(C35,D35,E35)</f>
-        <v>1418110</v>
-      </c>
+        <f>SUM(C35:O35)</f>
+        <v>1888990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
